--- a/My Sets/Joyrider (Uzebox)/Joyrider - Plan.xlsx
+++ b/My Sets/Joyrider (Uzebox)/Joyrider - Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="635" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Achievements" sheetId="2" r:id="rId1"/>
@@ -271,18 +271,9 @@
     <t>39s</t>
   </si>
   <si>
-    <t>Fastest time to cross all five bridges in free roam mode (press select to cancel race)</t>
-  </si>
-  <si>
     <t>Shortcut</t>
   </si>
   <si>
-    <t>Fastest time to cross both shortcuts in free roam mode (press select to cancel race)</t>
-  </si>
-  <si>
-    <t>Fastest time to visit all eight parking lots in free roam mode (press select to cancel race)</t>
-  </si>
-  <si>
     <t>1m00s75ms</t>
   </si>
   <si>
@@ -292,9 +283,6 @@
     <t>14s16ms</t>
   </si>
   <si>
-    <t>Complete all three story missions without taking damage (starting with Bank Job, exit to main menu to restart)</t>
-  </si>
-  <si>
     <t>Put a Tail on Him</t>
   </si>
   <si>
@@ -316,15 +304,6 @@
     <t>Complete the Collector mission in under 50s</t>
   </si>
   <si>
-    <t>Visit all eight parking lots in under 90s in free roam mode (press select to reset challenge)</t>
-  </si>
-  <si>
-    <t>Cross all five bridges in under 25s in free roam mode (press select to reset challenge)</t>
-  </si>
-  <si>
-    <t>Cross both shortcuts in under 20s in free roam mode (press select to reset challenge)</t>
-  </si>
-  <si>
     <t>Avoid capture by the police for 30s in survival mode</t>
   </si>
   <si>
@@ -340,12 +319,6 @@
     <t>Capture by the criminal in under 20s in pursuit mode</t>
   </si>
   <si>
-    <t>Complete all three story missions in under 2m30s (exit to main menu and start on Bank Job to reset challenge)</t>
-  </si>
-  <si>
-    <t>Complete all three story missions without failing or restarting (exit to main menu and start on Bank Job to reset challenge)</t>
-  </si>
-  <si>
     <t>Steadfast Driving</t>
   </si>
   <si>
@@ -371,6 +344,33 @@
   </si>
   <si>
     <t>Cover 60 unique city blocks during a single race in survival mode</t>
+  </si>
+  <si>
+    <t>Visit all eight parking lots in under 90s in free roam mode, press select to reset challenge</t>
+  </si>
+  <si>
+    <t>Cross all five bridges in under 25s in free roam mode, press select to reset challenge</t>
+  </si>
+  <si>
+    <t>Cross both shortcuts in under 20s in free roam mode, press select to reset challenge</t>
+  </si>
+  <si>
+    <t>Complete all three story missions in under 2m30s, exit to main menu and start on Bank Job to reset challenge</t>
+  </si>
+  <si>
+    <t>Complete all three story missions without failing or restarting, exit to main menu and start on Bank Job to reset challenge</t>
+  </si>
+  <si>
+    <t>Complete all three story missions without taking damage, starting with Bank Job, exit to main menu to restart</t>
+  </si>
+  <si>
+    <t>Fastest time to cross both shortcuts in free roam mode, press select to cancel race</t>
+  </si>
+  <si>
+    <t>Fastest time to cross all five bridges in free roam mode, press select to cancel race</t>
+  </si>
+  <si>
+    <t>Fastest time to visit all eight parking lots in free roam mode, press select to cancel race</t>
   </si>
 </sst>
 </file>
@@ -727,7 +727,7 @@
   <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>74</v>
@@ -852,10 +852,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -898,10 +898,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
@@ -922,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -944,10 +944,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -955,7 +955,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>73</v>
@@ -968,10 +968,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -979,7 +979,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>45</v>
@@ -992,10 +992,10 @@
         <v>5</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>71</v>
@@ -1016,10 +1016,10 @@
         <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G14" s="5"/>
     </row>
@@ -1084,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>12</v>
@@ -1105,7 +1105,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1159,7 +1159,7 @@
         <v>33</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>12</v>
@@ -1169,7 +1169,7 @@
         <v>5</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -2256,7 +2256,7 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,7 +2397,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>13</v>
@@ -2407,7 +2407,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -2730,8 +2730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2806,10 +2806,10 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2817,7 +2817,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2825,7 +2825,7 @@
         <v>71</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2833,15 +2833,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2849,7 +2849,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2942,7 +2942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G16" sqref="G16:G19"/>
     </sheetView>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>Achievements!F8</f>
-        <v>Complete all three story missions without failing or restarting (exit to main menu and start on Bank Job to reset challenge)</v>
+        <v>Complete all three story missions without failing or restarting, exit to main menu and start on Bank Job to reset challenge</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>Achievements!F9</f>
-        <v>Complete all three story missions in under 2m30s (exit to main menu and start on Bank Job to reset challenge)</v>
+        <v>Complete all three story missions in under 2m30s, exit to main menu and start on Bank Job to reset challenge</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>20</v>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="C10" s="7" t="str">
         <f>Achievements!F10</f>
-        <v>Cross both shortcuts in under 20s in free roam mode (press select to reset challenge)</v>
+        <v>Cross both shortcuts in under 20s in free roam mode, press select to reset challenge</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>20</v>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>Achievements!F11</f>
-        <v>Cross all five bridges in under 25s in free roam mode (press select to reset challenge)</v>
+        <v>Cross all five bridges in under 25s in free roam mode, press select to reset challenge</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>20</v>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C12" s="7" t="str">
         <f>Achievements!F12</f>
-        <v>Visit all eight parking lots in under 90s in free roam mode (press select to reset challenge)</v>
+        <v>Visit all eight parking lots in under 90s in free roam mode, press select to reset challenge</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>20</v>
@@ -3682,31 +3682,31 @@
     <row r="9" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Steadfast Driving","Complete all three story missions without failing or restarting (exit to main menu and start on Bank Job to reset challenge)", 5, trigger)</v>
+        <v>achievement("Steadfast Driving","Complete all three story missions without failing or restarting, exit to main menu and start on Bank Job to reset challenge", 5, trigger)</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Swift and Steady","Complete all three story missions in under 2m30s (exit to main menu and start on Bank Job to reset challenge)", 10, trigger)</v>
+        <v>achievement("Swift and Steady","Complete all three story missions in under 2m30s, exit to main menu and start on Bank Job to reset challenge", 10, trigger)</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("I Know a Shortcut","Cross both shortcuts in under 20s in free roam mode (press select to reset challenge)", 3, trigger)</v>
+        <v>achievement("I Know a Shortcut","Cross both shortcuts in under 20s in free roam mode, press select to reset challenge", 3, trigger)</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Bridge Racer","Cross all five bridges in under 25s in free roam mode (press select to reset challenge)", 5, trigger)</v>
+        <v>achievement("Bridge Racer","Cross all five bridges in under 25s in free roam mode, press select to reset challenge", 5, trigger)</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Travelling Salesman","Visit all eight parking lots in under 90s in free roam mode (press select to reset challenge)", 10, trigger)</v>
+        <v>achievement("Travelling Salesman","Visit all eight parking lots in under 90s in free roam mode, press select to reset challenge", 10, trigger)</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4189,7 +4189,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F4" s="4">
         <f>COUNTIF(Achievements!B:B,E4)</f>
